--- a/data/input/preprocessing/ecology/ecology_values_PP_cuboid.xlsx
+++ b/data/input/preprocessing/ecology/ecology_values_PP_cuboid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/test_inputs/preprocessing/ecology_format/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/input/preprocessing/ecology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F351EA6-9DE6-5948-8031-89D719A96F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACF21EB-0CAD-4D40-82AD-6EE6B1B57B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="640" windowWidth="25180" windowHeight="16920" xr2:uid="{47441FCD-0020-D14A-96DE-66D88D2CAA79}"/>
+    <workbookView xWindow="35840" yWindow="1360" windowWidth="25180" windowHeight="16920" xr2:uid="{47441FCD-0020-D14A-96DE-66D88D2CAA79}"/>
   </bookViews>
   <sheets>
     <sheet name="ecological_params" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Alternative_Param</t>
   </si>
@@ -56,6 +66,12 @@
   </si>
   <si>
     <t>PP_recycled_industrial</t>
+  </si>
+  <si>
+    <t>Optimal</t>
+  </si>
+  <si>
+    <t>Threshold</t>
   </si>
 </sst>
 </file>
@@ -119,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -130,6 +146,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,15 +542,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E83017-E511-E34B-85D7-45032B0E6888}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -545,8 +563,14 @@
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -554,13 +578,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
+        <f>MAX(ecological_params!B2:D2)</f>
+        <v>53.2</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -568,13 +595,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
+        <f>MAX(ecological_params!B3:D3)</f>
+        <v>37.200000000000003</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -582,11 +612,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
+        <f>MAX(ecological_params!B4:D4)</f>
+        <v>42.9</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
